--- a/fmba/KiCadVcu/BOM/vcu-pi.xlsx
+++ b/fmba/KiCadVcu/BOM/vcu-pi.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert.mathews\Documents\10-Personal\01-FMB\03 - Parts\electrical\VCU PCBs\KiCadVcu\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert.mathews\Documents\10-Personal\Analytics-Demo\Analytics-Demo\fmba\KiCadVcu\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA0C7CC5-6957-4491-9E7E-8853F940DE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFFF9A-E566-4A97-B31A-B60F5E18FCF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vcu-pi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Albert Mathews</author>
   </authors>
   <commentList>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="129">
   <si>
     <t>Reference</t>
   </si>
@@ -435,12 +435,18 @@
   </si>
   <si>
     <t>R32</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14017</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/1112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₹-4009]#,##0.00;[Red]&quot;-&quot;[$₹-4009]#,##0.00"/>
   </numFmts>
@@ -548,12 +554,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="4"/>
-    <cellStyle name="Result2" xfId="5"/>
+    <cellStyle name="Result" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Result2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -881,7 +887,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -914,8 +920,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -932,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -949,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -966,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -983,7 +995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1017,7 +1029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1869,27 +1881,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E25" r:id="rId7"/>
-    <hyperlink ref="E35" r:id="rId8"/>
-    <hyperlink ref="E16" r:id="rId9"/>
-    <hyperlink ref="E30" r:id="rId10"/>
-    <hyperlink ref="E36" r:id="rId11"/>
-    <hyperlink ref="E42" r:id="rId12"/>
-    <hyperlink ref="E49" r:id="rId13"/>
-    <hyperlink ref="E48" r:id="rId14"/>
-    <hyperlink ref="E50" r:id="rId15"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E35" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E42" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F2" r:id="rId16" xr:uid="{3A521AD1-AC0A-4AE3-BE0D-042E93CDF507}"/>
+    <hyperlink ref="G2" r:id="rId17" xr:uid="{E01B8935-63D5-4401-9CAC-895B8D89E9B4}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId16"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>